--- a/数据整理/stocks/A股/科创板/688348-昱能科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688348-昱能科技.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,6 +451,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>44</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2167,56 +2219,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>44</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688348-昱能科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688348-昱能科技.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>131</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>44</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>11.8</v>
       </c>
     </row>
@@ -498,6 +515,5036 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H132"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4321</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0761</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011692</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安研究智选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8122</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国长期成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7453</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009892</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国成长策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6571</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4731</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3859</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014834</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>45.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3856</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3166</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0150</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根景气甄选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9019</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7514</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6899</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6883</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6722</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6580</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>68.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6343</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5924</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5707</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河行业混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5658</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014207</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5437</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5370</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5260</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011663</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5252</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4894</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014208</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4672</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014833</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4554</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4534</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012354</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方新能源产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4466</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4163</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013176</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4133</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4071</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014611</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国核心科技12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3588</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013661</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安研究领航混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3534</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3499</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013484</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3435</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3074</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013175</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2983</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>76.34</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2672</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2670</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2647</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2634</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2521</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2494</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015686</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2456</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1947</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1821</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>63.27</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011664</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014878</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华安价值驱动一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商行業領先混合型證券投資基金 H</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011693</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华安研究智选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012355</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南方新能源产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012411</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>海富通成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013665</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>银河成长优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000550</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发新动力混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>015665</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012410</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>海富通成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014245</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014244</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>015303</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>鹏扬丰融价值先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013662</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华安研究领航混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012259</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>天弘鑫悦成长混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>014903</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长城新能源股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011629</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>银河核心优势混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>26.95</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014478</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中加低碳经济六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009379</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中银成长优选股票A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>014879</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华安价值驱动一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>013007</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>上投摩根景气甄选混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>015593</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013506</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华安研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>80.23</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>014612</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>富国核心科技12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>013666</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>银河成长优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014647</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>融通先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014902</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长城新能源股票A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005472</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>63.71</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>014703</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>博时时代领航混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>014648</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>融通先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>33.87</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>013638</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011801</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中银证券盈瑞混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>012258</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>天弘鑫悦成长混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>工银新生利混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>014479</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中加低碳经济六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>33.87</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>015304</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>鹏扬丰融价值先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>014704</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>博时时代领航混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005473</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>63.71</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>015689</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>富国价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>014948</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>72.36</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>015850</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>015172</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>016579</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>015670</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>银河行业混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>75.75</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>75.75</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>014455</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中银成长优选股票C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>011802</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中银证券盈瑞混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>015691</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>富国长期成长混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>015174</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>63.27</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688348-昱能科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688348-昱能科技.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D2" t="n">
-        <v>38.02</v>
+        <v>35.28</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>131</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>44</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>11.8</v>
       </c>
     </row>
@@ -515,6 +532,4379 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H115"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2642</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009892</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国成长策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8377</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7509</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012748</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7310</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7290</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5179</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4945</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011692</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安研究智选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>43.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4511</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>460001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞盛世中国混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4016</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国长期成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2389</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1249</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9419</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8590</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7830</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6509</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6325</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6123</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根景气甄选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5975</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012354</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方新能源产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5933</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014833</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5450</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5118</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4487</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4433</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011663</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4240</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015686</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3999</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3868</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3753</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013484</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3498</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014834</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3481</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3387</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3190</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.36</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3060</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3053</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010345</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2987</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013176</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2787</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2771</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2721</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013661</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安研究领航混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2648</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2168</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013113</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时博盈稳健6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>22.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2109</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013175</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2106</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012749</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2082</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012355</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方新能源产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>016590</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国汽车智选混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>49.95</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1707</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012500</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时汇荣回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1682</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010346</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>80.36</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014131</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰柏瑞聚优智选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014043</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011664</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华安研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013114</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时博盈稳健6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>22.15</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>016635</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国联安气候变化责任投资混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014878</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华安价值驱动一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>62.99</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011693</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华安研究智选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商行業領先混合型證券投資基金 H</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>65.24</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013104</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时新能源主题混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011277</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013103</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>博时新能源主题混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013662</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华安研究领航混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014903</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长城新能源股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>040009</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华安稳定收益债券A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014879</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华安价值驱动一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009379</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中银成长优选股票A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时汇誉回报混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>54.52</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013007</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>上投摩根景气甄选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008640</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>015392</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>上银新能源产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008641</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014902</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长城新能源股票A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>040010</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华安稳定收益债券B</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009627</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>014132</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华泰柏瑞聚优智选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>015391</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>上银新能源产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>016591</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>富国汽车智选混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>49.95</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>013638</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>80.33</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012501</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博时汇荣回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>工银新生利混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>28.98</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002172</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>海富通新内需灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>013506</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华安研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009628</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>003828</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>鹏华兴惠定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>519130</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>海富通新内需灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>65.24</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>015665</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>015689</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>富国价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>博时汇誉回报混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>54.52</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>69.18</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>014455</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中银成长优选股票C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>015172</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>69.18</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>013892</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>015174</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>62.99</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010443</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有混合B</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>015691</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>富国长期成长混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009440</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>光大保德信裕鑫混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009441</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>光大保德信裕鑫混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5544,7 +9934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
